--- a/file/data.xlsx
+++ b/file/data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelip\OneDrive\Рабочий стол\БНТУ\ЯП\Курсовая\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32729BD3-51BE-4FD8-A4E1-BED67302752A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B3DA64-62E0-48CE-B230-42D169BB49C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="10701123" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,43 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>ЛОГИН</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>ПАРОЛЬ</t>
-  </si>
-  <si>
-    <t>НАЗВАНИЕ ПРЕДМЕТА</t>
-  </si>
-  <si>
-    <t>ГРУППЫ</t>
-  </si>
-  <si>
-    <t>ПОЧТА</t>
-  </si>
-  <si>
-    <t>Нелипович Е.Г.</t>
-  </si>
-  <si>
-    <t>ЯП</t>
-  </si>
-  <si>
-    <t>zhenya.nelipovich@gmail.com</t>
-  </si>
-  <si>
-    <t>Корнейчик М.С.</t>
-  </si>
-  <si>
-    <t>ОАиП</t>
-  </si>
-  <si>
-    <t>korney@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Антанович Д.М</t>
   </si>
@@ -125,22 +88,13 @@
   </si>
   <si>
     <t>Харитонов А.П</t>
-  </si>
-  <si>
-    <t>Шкантов И.Н</t>
-  </si>
-  <si>
-    <t>Стасевич Е.А</t>
-  </si>
-  <si>
-    <t>10701123, 10701223, 10701323</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,27 +102,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,22 +120,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,224 +404,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B456AF-ACFB-48A2-9870-F4EE4A4F6D72}">
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>321</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>228</v>
-      </c>
-      <c r="C3">
-        <v>337</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10701123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B2079AE9-9750-4863-864F-2450AF49A9B1}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{6DBC8391-17C0-43F5-A314-B2414BC257D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58EE296-9C66-43D5-BFC7-D2CA3338E299}">
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
